--- a/xlsfiles/Soerfjorden/SOE10_CTD.xlsx
+++ b/xlsfiles/Soerfjorden/SOE10_CTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trondkr/Dropbox/NIVA/OKOKYST/okokyst_toolbox/xlsfiles/Soerfjorden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988180E1-E398-8C4C-8BC5-A47D4EDE612E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D26BF5-454F-EA41-9787-6044338B1F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
